--- a/biology/Botanique/Aconit_anthore/Aconit_anthore.xlsx
+++ b/biology/Botanique/Aconit_anthore/Aconit_anthore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aconit anthore (Aconitum anthora), également appelé Anthore ou aconit vénéneux, est une espèce de plantes herbacées vivaces du genre Aconitum, famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aconit anthore se rencontre  sur les rocailles, éboulis, pelouses, généralement en milieu calcaire. Sa floraison est assez tardive : août à septembre.
 Comme les autres aconits, c'est une espèce très toxique, considérée parmi les plus dangereuses de la flore de France. Le nom d'espèce anthora provient du fait qu'on croyait au Moyen Âge qu'il était un contrepoison de la Renoncule thora, la plus toxique des renoncules.
@@ -545,11 +559,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
-Période de floraison : juillet-septembre[1]
+Période de floraison : juillet-septembre
 Inflorescence : racème de racèmes
 Sexualité : hermaphrodite
 Ordre de maturation : protandre
